--- a/flask-app/report_templates/Сводный_отчет_шаблон.xlsx
+++ b/flask-app/report_templates/Сводный_отчет_шаблон.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc24\Downloads\Code\test2\report_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613E72AC-0126-4E5C-998C-06C9F1835ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAC0035-0BBE-41B7-8FAA-9BD93F6679C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="14535" windowHeight="12480" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Структура" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="248">
   <si>
     <t>Информация по состоянию за:</t>
   </si>
@@ -797,6 +797,24 @@
   </si>
   <si>
     <t>Авиатопливо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО Газпромнефть-РП (Омская НПЗ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">НБ Батагайская, НБ Белогорская, НБ Жиганская,НБ Зырянская,НБ Ленская, НБ Нагорнинская, НБ Нижне-Бестяхская, НБ Нижнеколымская,НБ Нижнеянская, НБ Нюрбинская,НБ Олекминская, НБ Сангарская, НБ Среднеколымская, НБ Томмотская, НБ Усть- Куйгинская, НБ Хандыгская, НБ Чокурдахская, НБ Эльдиканская, НБ Якутская       </t>
+  </si>
+  <si>
+    <t>Нижне-Бестяхская нефтебаза, Сунтарская нефтебаза (договор хранения), Нюрбинская нефтебаза (договор хранения), Якутская нефтебаза (договор хранения)</t>
+  </si>
+  <si>
+    <t>ООО "ЭКТО-Ойл"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стандарт, ТЭК Восток, Синергия, ПетроТрейд, ПетроТрейд, Миком   </t>
+  </si>
+  <si>
+    <t>ООО "Дорснаб", ООО "Экресурс"</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1133,46 +1151,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1254,6 +1242,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1492,7 +1511,7 @@
   <dimension ref="A2:AMJ58"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="12.75"/>
@@ -1509,11 +1528,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -1600,7 +1619,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4">
         <v>97</v>
@@ -1975,16 +1994,16 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A55" s="74" t="s">
+      <c r="A55" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="74" t="s">
+      <c r="B55" s="64" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="74"/>
-      <c r="B56" s="74"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="16" t="s">
@@ -2774,26 +2793,26 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1">
-      <c r="A6" s="74"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="15" t="s">
         <v>191</v>
       </c>
@@ -2959,26 +2978,26 @@
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" ht="27" customHeight="1">
-      <c r="A13" s="74"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="15" t="s">
         <v>191</v>
       </c>
@@ -3133,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:AMJ41"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B41"/>
+    <sheetView topLeftCell="A22" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="12.75"/>
@@ -3167,35 +3186,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="48" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
@@ -3203,91 +3222,91 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="18" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77" t="s">
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
     </row>
     <row r="6" spans="1:27" ht="18" customHeight="1">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="76" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76" t="s">
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76" t="s">
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76" t="s">
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
     </row>
     <row r="7" spans="1:27" ht="27" customHeight="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="21" t="s">
         <v>192</v>
       </c>
@@ -4430,8 +4449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:AMJ14"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C14" sqref="A9:C14"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="12.75"/>
@@ -4456,120 +4475,126 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79" t="s">
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:12" ht="27" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="41" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="40" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="42">
+      <c r="A8" s="41">
         <v>1</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="41">
         <v>2</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>3</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>4</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>5</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>6</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="41">
         <v>7</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <v>8</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="41">
         <v>9</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="41">
         <v>10</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="41">
         <v>11</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="41">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="44.85" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
+      <c r="A9" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="42"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
@@ -4580,10 +4605,16 @@
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="31.35" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="46"/>
+      <c r="A10" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="42"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -4594,10 +4625,14 @@
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="33" hidden="1" customHeight="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="46"/>
+      <c r="A11" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -4608,10 +4643,14 @@
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="33" hidden="1" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="46"/>
+      <c r="A12" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -4622,32 +4661,44 @@
       <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" ht="27.6" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
+      <c r="A13" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+    </row>
+    <row r="14" spans="1:12" ht="48">
+      <c r="A14" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4682,27 +4733,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="42" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
@@ -4710,69 +4761,69 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="81" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81" t="s">
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81" t="s">
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81" t="s">
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
     </row>
     <row r="7" spans="1:19" ht="27" customHeight="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="21" t="s">
         <v>192</v>
       </c>
@@ -5554,9 +5605,9 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="26.1" customHeight="1">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
@@ -5600,8 +5651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:AMJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E38"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.28515625" defaultRowHeight="12.75"/>
@@ -5609,7 +5660,9 @@
     <col min="1" max="1" width="24.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="9" width="10.140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.140625" style="1" customWidth="1"/>
     <col min="10" max="20" width="5.42578125" style="1" customWidth="1"/>
     <col min="21" max="1024" width="7.28515625" style="1"/>
   </cols>
@@ -5627,71 +5680,71 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="68" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="9" t="s">
         <v>231</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="78"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="9" t="s">
         <v>231</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="I6" s="78"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1">
-      <c r="A7" s="57">
+      <c r="A7" s="47">
         <v>1</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="47">
         <v>2</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="47">
         <v>3</v>
       </c>
-      <c r="D7" s="57">
+      <c r="D7" s="47">
         <v>4</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="47">
         <v>5</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="47">
         <v>6</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -5700,17 +5753,17 @@
       <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="82" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="59"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -5719,13 +5772,13 @@
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="59"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -5734,13 +5787,13 @@
       <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="59"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="A11" s="4" t="s">
@@ -5749,13 +5802,13 @@
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="59"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
       <c r="A12" s="4" t="s">
@@ -5764,13 +5817,13 @@
       <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="59"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
       <c r="A13" s="4" t="s">
@@ -5779,13 +5832,13 @@
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="59"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:9" ht="13.5">
       <c r="A14" s="4" t="s">
@@ -5794,13 +5847,13 @@
       <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="59"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:9" ht="13.5">
       <c r="A15" s="4" t="s">
@@ -5809,13 +5862,13 @@
       <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="59"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:9" ht="13.5">
       <c r="A16" s="4" t="s">
@@ -5824,13 +5877,13 @@
       <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="59"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" ht="13.5">
       <c r="A17" s="4" t="s">
@@ -5839,13 +5892,13 @@
       <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="59"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:9" ht="13.5">
       <c r="A18" s="4" t="s">
@@ -5854,13 +5907,13 @@
       <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="59"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="49"/>
     </row>
     <row r="19" spans="1:9" ht="13.5">
       <c r="A19" s="4" t="s">
@@ -5869,13 +5922,13 @@
       <c r="B19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="59"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:9" ht="13.5">
       <c r="A20" s="4" t="s">
@@ -5884,13 +5937,13 @@
       <c r="B20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="59"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:9" ht="13.5">
       <c r="A21" s="4" t="s">
@@ -5899,13 +5952,13 @@
       <c r="B21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="59"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:9" ht="13.5">
       <c r="A22" s="4" t="s">
@@ -5914,13 +5967,13 @@
       <c r="B22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="59"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:9" ht="13.5">
       <c r="A23" s="4" t="s">
@@ -5929,13 +5982,13 @@
       <c r="B23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="59"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:9" ht="13.5">
       <c r="A24" s="4" t="s">
@@ -5944,13 +5997,13 @@
       <c r="B24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="59"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:9" ht="13.5">
       <c r="A25" s="4" t="s">
@@ -5959,13 +6012,13 @@
       <c r="B25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="59"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:9" ht="13.5">
       <c r="A26" s="4" t="s">
@@ -5974,13 +6027,13 @@
       <c r="B26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="59"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" ht="13.5">
       <c r="A27" s="4" t="s">
@@ -5989,13 +6042,13 @@
       <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="59"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:9" ht="13.5">
       <c r="A28" s="4" t="s">
@@ -6004,13 +6057,13 @@
       <c r="B28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="59"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="49"/>
     </row>
     <row r="29" spans="1:9" ht="13.5">
       <c r="A29" s="4" t="s">
@@ -6019,13 +6072,13 @@
       <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="59"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="49"/>
     </row>
     <row r="30" spans="1:9" ht="13.5">
       <c r="A30" s="4" t="s">
@@ -6034,13 +6087,13 @@
       <c r="B30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="59"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="49"/>
     </row>
     <row r="31" spans="1:9" ht="13.5">
       <c r="A31" s="4" t="s">
@@ -6049,13 +6102,13 @@
       <c r="B31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="59"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="49"/>
     </row>
     <row r="32" spans="1:9" ht="13.5">
       <c r="A32" s="4" t="s">
@@ -6064,13 +6117,13 @@
       <c r="B32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="59"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="49"/>
     </row>
     <row r="33" spans="1:10" ht="13.5">
       <c r="A33" s="4" t="s">
@@ -6079,13 +6132,13 @@
       <c r="B33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="59"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="49"/>
     </row>
     <row r="34" spans="1:10" ht="13.5">
       <c r="A34" s="4" t="s">
@@ -6094,13 +6147,13 @@
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="59"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="49"/>
     </row>
     <row r="35" spans="1:10" ht="13.5">
       <c r="A35" s="4" t="s">
@@ -6109,13 +6162,13 @@
       <c r="B35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="59"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="49"/>
     </row>
     <row r="36" spans="1:10" ht="13.5">
       <c r="A36" s="4" t="s">
@@ -6124,13 +6177,13 @@
       <c r="B36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="59"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="49"/>
     </row>
     <row r="37" spans="1:10" ht="13.5">
       <c r="A37" s="4" t="s">
@@ -6139,13 +6192,13 @@
       <c r="B37" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="59"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="49"/>
     </row>
     <row r="38" spans="1:10" ht="13.5">
       <c r="A38" s="4" t="s">
@@ -6154,43 +6207,43 @@
       <c r="B38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="59"/>
-    </row>
-    <row r="39" spans="1:10" s="64" customFormat="1" ht="13.5">
+      <c r="C38" s="72"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="49"/>
+    </row>
+    <row r="39" spans="1:10" s="54" customFormat="1" ht="13.5">
       <c r="A39" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="61">
+      <c r="C39" s="51">
         <v>0.57499999999999996</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="51">
         <v>0</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="51">
         <v>0</v>
       </c>
-      <c r="F39" s="61">
+      <c r="F39" s="51">
         <v>0.9</v>
       </c>
-      <c r="G39" s="61">
+      <c r="G39" s="51">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H39" s="62">
+      <c r="H39" s="52">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I39" s="62">
+      <c r="I39" s="52">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J39" s="63"/>
+      <c r="J39" s="53"/>
     </row>
     <row r="40" spans="1:10" ht="13.5">
       <c r="A40" s="4" t="s">
@@ -6199,25 +6252,25 @@
       <c r="B40" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="65">
+      <c r="C40" s="55">
         <v>1</v>
       </c>
-      <c r="D40" s="66">
+      <c r="D40" s="56">
         <v>0</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="57">
         <v>0.45700000000000002</v>
       </c>
-      <c r="F40" s="67">
+      <c r="F40" s="57">
         <v>0.5</v>
       </c>
-      <c r="G40" s="68">
+      <c r="G40" s="58">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H40" s="67">
+      <c r="H40" s="57">
         <v>0.53200000000000003</v>
       </c>
-      <c r="I40" s="67">
+      <c r="I40" s="57">
         <v>0.39</v>
       </c>
     </row>
@@ -6280,39 +6333,39 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1">
-      <c r="A6" s="69">
+      <c r="A6" s="59">
         <v>1</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="59">
         <v>2</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="171" customHeight="1">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="72"/>
+      <c r="C7" s="62"/>
     </row>
     <row r="8" spans="1:3" ht="60" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="48"/>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="61" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="13"/>
